--- a/SB_2.xlsx
+++ b/SB_2.xlsx
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>As a Developer, I want to design the SQLite database schema for the knowledge base so that we can store course and forum data efficiently.</t>
+          <t>As a Developer, I want to design the database schema so that data can be stored efficiently.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DA: Design tables for course content and forum posts</t>
+          <t>HC: Create entity-relationship diagram</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DA</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DA: Add fields for embeddings and metadata</t>
+          <t>HC: Define table structures</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DA</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -593,12 +593,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DB: Review schema and suggest optimizations</t>
+          <t>HC: Set up primary and foreign keys</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DB</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -611,19 +611,29 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SB2/US2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to create SQLite database file so that data can be persisted.</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SB2/US1/T4</t>
+          <t>SB2/US2/T1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DA: Finalize and document database schema</t>
+          <t>HC: Initialize SQLite database</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DA</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -636,29 +646,19 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SB2/US2</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>As a Developer, I want to implement text chunking functionality so that we can break down long documents into manageable pieces.</t>
-        </is>
-      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SB2/US2/T1</t>
+          <t>SB2/US2/T2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DA: Research optimal chunk size for embeddings</t>
+          <t>HC: Create tables for course content</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DA</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -673,17 +673,17 @@
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>SB2/US2/T2</t>
+          <t>SB2/US2/T3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DA: Implement chunk_text() function with overlap</t>
+          <t>HC: Create tables for forum posts</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DA</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -696,19 +696,29 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SB2/US3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to implement text chunking so that long documents are split properly.</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SB2/US2/T3</t>
+          <t>SB2/US3/T1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TC: Test chunking with various document sizes</t>
+          <t>HC: Research optimal chunk size</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -723,17 +733,17 @@
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>SB2/US2/T4</t>
+          <t>SB2/US3/T2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DA: Optimize chunk size and overlap parameters</t>
+          <t>HC: Implement chunk_text function</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>DA</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -742,58 +752,58 @@
         </is>
       </c>
       <c r="G11" s="4" t="n">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SB2/US3/T3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>HC: Add overlap parameter handling</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G12" s="4" t="n">
         <v>45682</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SB2/US3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>As a Developer, I want to integrate SentenceTransformer for local embeddings so that we can generate embeddings without external API dependencies.</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SB2/US3/T1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>DB: Research and select appropriate SentenceTransformer model</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>DB</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>45681</v>
-      </c>
-    </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SB2/US4</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to handle special cases in chunking so that text boundaries are respected.</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SB2/US3/T2</t>
+          <t>SB2/US4/T1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DB: Implement embedding generation with all-MiniLM-L6-v2</t>
+          <t>HC: Identify sentence boundaries</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DB</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -808,17 +818,17 @@
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>SB2/US3/T3</t>
+          <t>SB2/US4/T2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DB: Add GPU support with PyTorch device detection</t>
+          <t>HC: Avoid splitting mid-sentence</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DB</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -833,17 +843,17 @@
     <row r="15">
       <c r="C15" t="inlineStr">
         <is>
-          <t>SB2/US3/T4</t>
+          <t>SB2/US4/T3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TC: Test embedding generation performance</t>
+          <t>HC: Test with various text samples</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -858,27 +868,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SB2/US4</t>
+          <t>SB2/US5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>As a Developer, I want to create knowledge base creation script so that we can populate the database with chunked and embedded content.</t>
+          <t>As a Developer, I want to research embedding models so that the best one is selected.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SB2/US4/T1</t>
+          <t>SB2/US5/T1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DA: Create base_creation_test.py structure</t>
+          <t>HC: Compare different SentenceTransformer models</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>DA</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -887,23 +897,23 @@
         </is>
       </c>
       <c r="G16" s="4" t="n">
-        <v>45682</v>
+        <v>45683</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>SB2/US4/T2</t>
+          <t>SB2/US5/T2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DA: Implement course content processing</t>
+          <t>HC: Evaluate model size vs accuracy</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>DA</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -918,17 +928,17 @@
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>SB2/US4/T3</t>
+          <t>SB2/US5/T3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DA: Implement forum posts processing</t>
+          <t>HC: Select all-MiniLM-L6-v2 model</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DA</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -937,23 +947,33 @@
         </is>
       </c>
       <c r="G18" s="4" t="n">
-        <v>45683</v>
+        <v>45684</v>
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SB2/US6</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to implement local embedding generation so that no external API is needed.</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SB2/US4/T4</t>
+          <t>SB2/US6/T1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DA: Add batch embedding generation</t>
+          <t>HC: Install SentenceTransformer library</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DA</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -968,17 +988,17 @@
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>SB2/US4/T5</t>
+          <t>SB2/US6/T2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TC: Test full knowledge base creation</t>
+          <t>HC: Load embedding model</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -991,29 +1011,19 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>SB2/US5</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>As a Developer, I want to implement URL update functionality for Discourse links so that all forum links work correctly.</t>
-        </is>
-      </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SB2/US5/T1</t>
+          <t>SB2/US6/T3</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DB: Create updatelinks.py script</t>
+          <t>HC: Create embed function</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>DB</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1022,23 +1032,33 @@
         </is>
       </c>
       <c r="G21" s="4" t="n">
-        <v>45683</v>
+        <v>45685</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SB2/US7</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to add GPU support so that embedding generation is faster.</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SB2/US5/T2</t>
+          <t>SB2/US7/T1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DB: Implement URL pattern matching and replacement</t>
+          <t>HC: Install PyTorch with CUDA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DB</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1047,23 +1067,23 @@
         </is>
       </c>
       <c r="G22" s="4" t="n">
-        <v>45684</v>
+        <v>45685</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="inlineStr">
         <is>
-          <t>SB2/US5/T3</t>
+          <t>SB2/US7/T2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TC: Verify all URLs are correctly updated</t>
+          <t>HC: Implement device detection</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1072,33 +1092,23 @@
         </is>
       </c>
       <c r="G23" s="4" t="n">
-        <v>45684</v>
+        <v>45685</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>SB2/US6</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>As a Developer, I want to test embedding quality and retrieval accuracy so that we ensure relevant content is retrieved for queries.</t>
-        </is>
-      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SB2/US6/T1</t>
+          <t>SB2/US7/T3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TC: Create test queries for validation</t>
+          <t>HC: Test on GPU and CPU</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1107,23 +1117,33 @@
         </is>
       </c>
       <c r="G24" s="4" t="n">
-        <v>45684</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SB2/US8</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to implement batch embedding so that processing is efficient.</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SB2/US6/T2</t>
+          <t>SB2/US8/T1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TC: Test cosine similarity calculations</t>
+          <t>HC: Add batch size parameter</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1132,23 +1152,23 @@
         </is>
       </c>
       <c r="G25" s="4" t="n">
-        <v>45685</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="inlineStr">
         <is>
-          <t>SB2/US6/T3</t>
+          <t>SB2/US8/T2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TC: Validate top-k retrieval results</t>
+          <t>HC: Process texts in batches</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1157,23 +1177,23 @@
         </is>
       </c>
       <c r="G26" s="4" t="n">
-        <v>45685</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="inlineStr">
         <is>
-          <t>SB2/US6/T4</t>
+          <t>SB2/US8/T3</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ALL: Team review of retrieval quality</t>
+          <t>HC: Optimize memory usage</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1182,7 +1202,1877 @@
         </is>
       </c>
       <c r="G27" s="4" t="n">
-        <v>45685</v>
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SB2/US9</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to create base_creation_test.py so that knowledge base can be built.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SB2/US9/T1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>HC: Set up script structure</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SB2/US9/T2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>HC: Add logging configuration</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SB2/US9/T3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>HC: Implement main function</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SB2/US10</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to process course content so that it is added to knowledge base.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SB2/US10/T1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>HC: Read markdown files</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SB2/US10/T2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>HC: Chunk course content</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SB2/US10/T3</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>HC: Generate embeddings for chunks</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SB2/US11</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to process forum posts so that they are added to knowledge base.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SB2/US11/T1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>HC: Read forum post JSON files</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SB2/US11/T2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>HC: Extract text from posts</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SB2/US11/T3</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>HC: Chunk and embed forum content</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G36" s="4" t="n">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SB2/US12</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to store embeddings in database so that they can be queried later.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SB2/US12/T1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>HC: Convert embeddings to JSON</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G37" s="4" t="n">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SB2/US12/T2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>HC: Insert into database with text</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G38" s="4" t="n">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SB2/US12/T3</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>HC: Create indexes for fast retrieval</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G39" s="4" t="n">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SB2/US13</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to implement progress tracking so that knowledge base creation can be monitored.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>SB2/US13/T1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>HC: Add progress bar with tqdm</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G40" s="4" t="n">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SB2/US13/T2</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>HC: Log processing milestones</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G41" s="4" t="n">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SB2/US13/T3</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>HC: Display statistics</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G42" s="4" t="n">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SB2/US14</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to handle duplicate content so that knowledge base is clean.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SB2/US14/T1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>HC: Implement content hashing</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SB2/US14/T2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>HC: Check for duplicates before insertion</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G44" s="4" t="n">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SB2/US14/T3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>HC: Log skipped duplicates</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G45" s="4" t="n">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SB2/US15</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to implement updatelinks.py so that Discourse URLs are corrected.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>SB2/US15/T1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>HC: Identify broken URL patterns</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G46" s="4" t="n">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SB2/US15/T2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>HC: Create URL replacement function</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G47" s="4" t="n">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SB2/US15/T3</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>HC: Update database records</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>HC</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G48" s="4" t="n">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SB2/US16</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to test URL updates so that all links are working.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SB2/US16/T1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GM: Verify updated URLs</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G49" s="4" t="n">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SB2/US16/T2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GM: Test random sample of links</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G50" s="4" t="n">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SB2/US16/T3</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GM: Generate validation report</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G51" s="4" t="n">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SB2/US17</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to create embedding quality tests so that retrieval accuracy is verified.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SB2/US17/T1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>GM: Create test query set</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G52" s="4" t="n">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SB2/US17/T2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>GM: Generate embeddings for test queries</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G53" s="4" t="n">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>SB2/US17/T3</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GM: Verify semantic similarity</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G54" s="4" t="n">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SB2/US18</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to implement cosine similarity function so that embeddings can be compared.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SB2/US18/T1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GM: Implement numpy-based cosine similarity</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G55" s="4" t="n">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SB2/US18/T2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>GM: Optimize for batch processing</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G56" s="4" t="n">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SB2/US18/T3</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>GM: Test accuracy with known examples</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G57" s="4" t="n">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SB2/US19</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to test retrieval with sample queries so that knowledge base works correctly.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SB2/US19/T1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GM: Create diverse test queries</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G58" s="4" t="n">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>SB2/US19/T2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GM: Retrieve top-k results</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G59" s="4" t="n">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>SB2/US19/T3</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GM: Validate relevance of results</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G60" s="4" t="n">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SB2/US20</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to implement similarity threshold so that irrelevant results are filtered.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>SB2/US20/T1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GM: Determine optimal threshold value</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G61" s="4" t="n">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SB2/US20/T2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>GM: Add threshold parameter</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G62" s="4" t="n">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SB2/US20/T3</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GM: Test with various thresholds</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G63" s="4" t="n">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SB2/US21</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to add metadata extraction so that source info is preserved.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SB2/US21/T1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GM: Extract URLs from content</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G64" s="4" t="n">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>SB2/US21/T2</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GM: Store titles and dates</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G65" s="4" t="n">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SB2/US21/T3</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GM: Link metadata to chunks</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G66" s="4" t="n">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SB2/US22</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to implement database indexing so that queries are fast.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>SB2/US22/T1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GM: Create index on content type</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G67" s="4" t="n">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>SB2/US22/T2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GM: Create index on timestamps</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G68" s="4" t="n">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SB2/US22/T3</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GM: Test query performance</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G69" s="4" t="n">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SB2/US23</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to add database backup functionality so that data is safe.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>SB2/US23/T1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>GM: Implement backup creation</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G70" s="4" t="n">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SB2/US23/T2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>DS: Add timestamp to backups</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G71" s="4" t="n">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>SB2/US23/T3</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>DS: Test backup restoration</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G72" s="4" t="n">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SB2/US24</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to create database statistics script so that content can be analyzed.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>SB2/US24/T1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>DS: Count total chunks</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G73" s="4" t="n">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SB2/US24/T2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>DS: Calculate average chunk size</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G74" s="4" t="n">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>SB2/US24/T3</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>DS: Generate statistics report</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G75" s="4" t="n">
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SB2/US25</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to implement error handling so that processing continues on failures.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>SB2/US25/T1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>DS: Add try-except blocks</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G76" s="4" t="n">
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SB2/US25/T2</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>DS: Log processing errors</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G77" s="4" t="n">
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>SB2/US25/T3</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>DS: Continue with next item on error</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G78" s="4" t="n">
+        <v>45704</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SB2/US26</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to optimize memory usage so that large datasets can be processed.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SB2/US26/T1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>DS: Process files in batches</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G79" s="4" t="n">
+        <v>45704</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SB2/US26/T2</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>DS: Clear memory between batches</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G80" s="4" t="n">
+        <v>45704</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>SB2/US26/T3</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>DS: Monitor memory consumption</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G81" s="4" t="n">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>SB2/US27</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to add validation for embedding dimensions so that consistency is ensured.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>SB2/US27/T1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>DS: Check embedding vector length</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G82" s="4" t="n">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>SB2/US27/T2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>DS: Validate embedding data types</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G83" s="4" t="n">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>SB2/US27/T3</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>DS: Raise error on mismatches</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G84" s="4" t="n">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SB2/US28</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to create embedding visualization tool so that quality can be assessed.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SB2/US28/T1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>DS: Use dimensionality reduction (t-SNE)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G85" s="4" t="n">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>SB2/US28/T2</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>DS: Plot embeddings in 2D space</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G86" s="4" t="n">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>SB2/US28/T3</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>DS: Color-code by content type</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G87" s="4" t="n">
+        <v>45707</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SB2/US29</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to implement incremental knowledge base updates so that new content can be added.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>SB2/US29/T1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>DS: Track last processed timestamp</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G88" s="4" t="n">
+        <v>45707</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SB2/US29/T2</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>DS: Process only new content</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G89" s="4" t="n">
+        <v>45707</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>SB2/US29/T3</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>DS: Update statistics</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G90" s="4" t="n">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SB2/US30</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>As a Developer, I want to create knowledge base documentation so that structure is clear.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>SB2/US30/T1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>DS: Document database schema</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G91" s="4" t="n">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>SB2/US30/T2</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>DS: Document embedding process</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G92" s="4" t="n">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SB2/US30/T3</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>DS: Add usage examples</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>DS</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G93" s="4" t="n">
+        <v>45709</v>
       </c>
     </row>
   </sheetData>
@@ -1200,18 +3090,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="inlineStr">
@@ -1249,10 +3134,10 @@
         <v>45679</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -1260,10 +3145,10 @@
         <v>45680</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -1271,10 +3156,10 @@
         <v>45681</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -1282,10 +3167,10 @@
         <v>45682</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -1293,10 +3178,10 @@
         <v>45683</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -1304,10 +3189,10 @@
         <v>45684</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -1315,9 +3200,273 @@
         <v>45685</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C9" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B10" t="n">
+        <v>69</v>
+      </c>
+      <c r="C10" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B11" t="n">
+        <v>66</v>
+      </c>
+      <c r="C11" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B12" t="n">
+        <v>63</v>
+      </c>
+      <c r="C12" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C13" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
+        <v>45690</v>
+      </c>
+      <c r="B14" t="n">
+        <v>57</v>
+      </c>
+      <c r="C14" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B15" t="n">
+        <v>54</v>
+      </c>
+      <c r="C15" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B16" t="n">
+        <v>51</v>
+      </c>
+      <c r="C16" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B17" t="n">
+        <v>48</v>
+      </c>
+      <c r="C17" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B18" t="n">
+        <v>45</v>
+      </c>
+      <c r="C18" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B19" t="n">
+        <v>42</v>
+      </c>
+      <c r="C19" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n">
+        <v>45696</v>
+      </c>
+      <c r="B20" t="n">
+        <v>39</v>
+      </c>
+      <c r="C20" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n">
+        <v>45697</v>
+      </c>
+      <c r="B21" t="n">
+        <v>36</v>
+      </c>
+      <c r="C21" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B22" t="n">
+        <v>33</v>
+      </c>
+      <c r="C22" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B23" t="n">
+        <v>30</v>
+      </c>
+      <c r="C23" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B24" t="n">
+        <v>27</v>
+      </c>
+      <c r="C24" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B26" t="n">
+        <v>21</v>
+      </c>
+      <c r="C26" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n">
+        <v>45703</v>
+      </c>
+      <c r="B27" t="n">
+        <v>18</v>
+      </c>
+      <c r="C27" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n">
+        <v>45704</v>
+      </c>
+      <c r="B28" t="n">
+        <v>15</v>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B29" t="n">
+        <v>12</v>
+      </c>
+      <c r="C29" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>

--- a/SB_2.xlsx
+++ b/SB_2.xlsx
@@ -17,8 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -76,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -92,6 +93,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -556,8 +558,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>45679</v>
+      <c r="G4" s="7" t="n">
+        <v>45908</v>
       </c>
     </row>
     <row r="5">
@@ -581,8 +583,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>45679</v>
+      <c r="G5" s="7" t="n">
+        <v>45908</v>
       </c>
     </row>
     <row r="6">
@@ -606,8 +608,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>45680</v>
+      <c r="G6" s="7" t="n">
+        <v>45908</v>
       </c>
     </row>
     <row r="7">
@@ -641,8 +643,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
-        <v>45680</v>
+      <c r="G7" s="7" t="n">
+        <v>45909</v>
       </c>
     </row>
     <row r="8">
@@ -666,8 +668,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>45680</v>
+      <c r="G8" s="7" t="n">
+        <v>45909</v>
       </c>
     </row>
     <row r="9">
@@ -691,8 +693,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
-        <v>45681</v>
+      <c r="G9" s="7" t="n">
+        <v>45909</v>
       </c>
     </row>
     <row r="10">
@@ -726,8 +728,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
-        <v>45681</v>
+      <c r="G10" s="7" t="n">
+        <v>45910</v>
       </c>
     </row>
     <row r="11">
@@ -751,8 +753,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
-        <v>45681</v>
+      <c r="G11" s="7" t="n">
+        <v>45910</v>
       </c>
     </row>
     <row r="12">
@@ -776,8 +778,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
-        <v>45682</v>
+      <c r="G12" s="7" t="n">
+        <v>45910</v>
       </c>
     </row>
     <row r="13">
@@ -811,8 +813,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
-        <v>45682</v>
+      <c r="G13" s="7" t="n">
+        <v>45911</v>
       </c>
     </row>
     <row r="14">
@@ -836,8 +838,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
-        <v>45682</v>
+      <c r="G14" s="7" t="n">
+        <v>45911</v>
       </c>
     </row>
     <row r="15">
@@ -861,8 +863,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
-        <v>45683</v>
+      <c r="G15" s="7" t="n">
+        <v>45911</v>
       </c>
     </row>
     <row r="16">
@@ -896,8 +898,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n">
-        <v>45683</v>
+      <c r="G16" s="7" t="n">
+        <v>45912</v>
       </c>
     </row>
     <row r="17">
@@ -921,8 +923,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
-        <v>45683</v>
+      <c r="G17" s="7" t="n">
+        <v>45912</v>
       </c>
     </row>
     <row r="18">
@@ -946,8 +948,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
-        <v>45684</v>
+      <c r="G18" s="7" t="n">
+        <v>45912</v>
       </c>
     </row>
     <row r="19">
@@ -981,8 +983,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G19" s="4" t="n">
-        <v>45684</v>
+      <c r="G19" s="7" t="n">
+        <v>45913</v>
       </c>
     </row>
     <row r="20">
@@ -1006,8 +1008,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G20" s="4" t="n">
-        <v>45684</v>
+      <c r="G20" s="7" t="n">
+        <v>45913</v>
       </c>
     </row>
     <row r="21">
@@ -1031,8 +1033,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G21" s="4" t="n">
-        <v>45685</v>
+      <c r="G21" s="7" t="n">
+        <v>45913</v>
       </c>
     </row>
     <row r="22">
@@ -1066,8 +1068,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G22" s="4" t="n">
-        <v>45685</v>
+      <c r="G22" s="7" t="n">
+        <v>45914</v>
       </c>
     </row>
     <row r="23">
@@ -1091,8 +1093,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G23" s="4" t="n">
-        <v>45685</v>
+      <c r="G23" s="7" t="n">
+        <v>45914</v>
       </c>
     </row>
     <row r="24">
@@ -1116,8 +1118,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G24" s="4" t="n">
-        <v>45686</v>
+      <c r="G24" s="7" t="n">
+        <v>45914</v>
       </c>
     </row>
     <row r="25">
@@ -1151,8 +1153,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G25" s="4" t="n">
-        <v>45686</v>
+      <c r="G25" s="7" t="n">
+        <v>45915</v>
       </c>
     </row>
     <row r="26">
@@ -1176,8 +1178,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G26" s="4" t="n">
-        <v>45686</v>
+      <c r="G26" s="7" t="n">
+        <v>45915</v>
       </c>
     </row>
     <row r="27">
@@ -1201,8 +1203,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G27" s="4" t="n">
-        <v>45687</v>
+      <c r="G27" s="7" t="n">
+        <v>45915</v>
       </c>
     </row>
     <row r="28">
@@ -1236,8 +1238,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G28" s="4" t="n">
-        <v>45687</v>
+      <c r="G28" s="7" t="n">
+        <v>45916</v>
       </c>
     </row>
     <row r="29">
@@ -1261,8 +1263,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G29" s="4" t="n">
-        <v>45687</v>
+      <c r="G29" s="7" t="n">
+        <v>45916</v>
       </c>
     </row>
     <row r="30">
@@ -1286,8 +1288,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G30" s="4" t="n">
-        <v>45688</v>
+      <c r="G30" s="7" t="n">
+        <v>45916</v>
       </c>
     </row>
     <row r="31">
@@ -1321,8 +1323,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G31" s="4" t="n">
-        <v>45688</v>
+      <c r="G31" s="7" t="n">
+        <v>45917</v>
       </c>
     </row>
     <row r="32">
@@ -1346,8 +1348,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G32" s="4" t="n">
-        <v>45688</v>
+      <c r="G32" s="7" t="n">
+        <v>45917</v>
       </c>
     </row>
     <row r="33">
@@ -1371,8 +1373,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G33" s="4" t="n">
-        <v>45689</v>
+      <c r="G33" s="7" t="n">
+        <v>45917</v>
       </c>
     </row>
     <row r="34">
@@ -1406,8 +1408,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G34" s="4" t="n">
-        <v>45689</v>
+      <c r="G34" s="7" t="n">
+        <v>45918</v>
       </c>
     </row>
     <row r="35">
@@ -1431,8 +1433,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G35" s="4" t="n">
-        <v>45689</v>
+      <c r="G35" s="7" t="n">
+        <v>45918</v>
       </c>
     </row>
     <row r="36">
@@ -1456,8 +1458,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G36" s="4" t="n">
-        <v>45690</v>
+      <c r="G36" s="7" t="n">
+        <v>45918</v>
       </c>
     </row>
     <row r="37">
@@ -1491,8 +1493,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G37" s="4" t="n">
-        <v>45690</v>
+      <c r="G37" s="7" t="n">
+        <v>45919</v>
       </c>
     </row>
     <row r="38">
@@ -1516,8 +1518,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G38" s="4" t="n">
-        <v>45690</v>
+      <c r="G38" s="7" t="n">
+        <v>45919</v>
       </c>
     </row>
     <row r="39">
@@ -1541,8 +1543,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G39" s="4" t="n">
-        <v>45691</v>
+      <c r="G39" s="7" t="n">
+        <v>45919</v>
       </c>
     </row>
     <row r="40">
@@ -1576,8 +1578,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G40" s="4" t="n">
-        <v>45691</v>
+      <c r="G40" s="7" t="n">
+        <v>45920</v>
       </c>
     </row>
     <row r="41">
@@ -1601,8 +1603,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G41" s="4" t="n">
-        <v>45691</v>
+      <c r="G41" s="7" t="n">
+        <v>45920</v>
       </c>
     </row>
     <row r="42">
@@ -1626,8 +1628,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G42" s="4" t="n">
-        <v>45692</v>
+      <c r="G42" s="7" t="n">
+        <v>45920</v>
       </c>
     </row>
     <row r="43">
@@ -1661,8 +1663,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G43" s="4" t="n">
-        <v>45692</v>
+      <c r="G43" s="7" t="n">
+        <v>45921</v>
       </c>
     </row>
     <row r="44">
@@ -1686,8 +1688,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G44" s="4" t="n">
-        <v>45692</v>
+      <c r="G44" s="7" t="n">
+        <v>45921</v>
       </c>
     </row>
     <row r="45">
@@ -1711,8 +1713,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G45" s="4" t="n">
-        <v>45693</v>
+      <c r="G45" s="7" t="n">
+        <v>45921</v>
       </c>
     </row>
     <row r="46">
@@ -1746,8 +1748,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G46" s="4" t="n">
-        <v>45693</v>
+      <c r="G46" s="7" t="n">
+        <v>45922</v>
       </c>
     </row>
     <row r="47">
@@ -1771,8 +1773,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G47" s="4" t="n">
-        <v>45693</v>
+      <c r="G47" s="7" t="n">
+        <v>45922</v>
       </c>
     </row>
     <row r="48">
@@ -1796,8 +1798,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G48" s="4" t="n">
-        <v>45694</v>
+      <c r="G48" s="7" t="n">
+        <v>45922</v>
       </c>
     </row>
     <row r="49">
@@ -1831,8 +1833,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G49" s="4" t="n">
-        <v>45694</v>
+      <c r="G49" s="7" t="n">
+        <v>45923</v>
       </c>
     </row>
     <row r="50">
@@ -1856,8 +1858,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G50" s="4" t="n">
-        <v>45694</v>
+      <c r="G50" s="7" t="n">
+        <v>45923</v>
       </c>
     </row>
     <row r="51">
@@ -1881,8 +1883,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G51" s="4" t="n">
-        <v>45695</v>
+      <c r="G51" s="7" t="n">
+        <v>45923</v>
       </c>
     </row>
     <row r="52">
@@ -1916,8 +1918,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G52" s="4" t="n">
-        <v>45695</v>
+      <c r="G52" s="7" t="n">
+        <v>45924</v>
       </c>
     </row>
     <row r="53">
@@ -1941,8 +1943,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G53" s="4" t="n">
-        <v>45695</v>
+      <c r="G53" s="7" t="n">
+        <v>45924</v>
       </c>
     </row>
     <row r="54">
@@ -1966,8 +1968,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G54" s="4" t="n">
-        <v>45696</v>
+      <c r="G54" s="7" t="n">
+        <v>45924</v>
       </c>
     </row>
     <row r="55">
@@ -2001,8 +2003,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G55" s="4" t="n">
-        <v>45696</v>
+      <c r="G55" s="7" t="n">
+        <v>45925</v>
       </c>
     </row>
     <row r="56">
@@ -2026,8 +2028,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G56" s="4" t="n">
-        <v>45696</v>
+      <c r="G56" s="7" t="n">
+        <v>45925</v>
       </c>
     </row>
     <row r="57">
@@ -2051,8 +2053,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G57" s="4" t="n">
-        <v>45697</v>
+      <c r="G57" s="7" t="n">
+        <v>45925</v>
       </c>
     </row>
     <row r="58">
@@ -2086,8 +2088,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G58" s="4" t="n">
-        <v>45697</v>
+      <c r="G58" s="7" t="n">
+        <v>45926</v>
       </c>
     </row>
     <row r="59">
@@ -2111,8 +2113,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G59" s="4" t="n">
-        <v>45697</v>
+      <c r="G59" s="7" t="n">
+        <v>45926</v>
       </c>
     </row>
     <row r="60">
@@ -2136,8 +2138,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G60" s="4" t="n">
-        <v>45698</v>
+      <c r="G60" s="7" t="n">
+        <v>45926</v>
       </c>
     </row>
     <row r="61">
@@ -2171,8 +2173,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G61" s="4" t="n">
-        <v>45698</v>
+      <c r="G61" s="7" t="n">
+        <v>45927</v>
       </c>
     </row>
     <row r="62">
@@ -2196,8 +2198,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G62" s="4" t="n">
-        <v>45698</v>
+      <c r="G62" s="7" t="n">
+        <v>45927</v>
       </c>
     </row>
     <row r="63">
@@ -2221,8 +2223,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G63" s="4" t="n">
-        <v>45699</v>
+      <c r="G63" s="7" t="n">
+        <v>45927</v>
       </c>
     </row>
     <row r="64">
@@ -2256,8 +2258,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G64" s="4" t="n">
-        <v>45699</v>
+      <c r="G64" s="7" t="n">
+        <v>45928</v>
       </c>
     </row>
     <row r="65">
@@ -2281,8 +2283,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G65" s="4" t="n">
-        <v>45699</v>
+      <c r="G65" s="7" t="n">
+        <v>45928</v>
       </c>
     </row>
     <row r="66">
@@ -2306,8 +2308,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G66" s="4" t="n">
-        <v>45700</v>
+      <c r="G66" s="7" t="n">
+        <v>45928</v>
       </c>
     </row>
     <row r="67">
@@ -2341,8 +2343,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G67" s="4" t="n">
-        <v>45700</v>
+      <c r="G67" s="7" t="n">
+        <v>45929</v>
       </c>
     </row>
     <row r="68">
@@ -2366,8 +2368,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G68" s="4" t="n">
-        <v>45700</v>
+      <c r="G68" s="7" t="n">
+        <v>45929</v>
       </c>
     </row>
     <row r="69">
@@ -2391,8 +2393,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G69" s="4" t="n">
-        <v>45701</v>
+      <c r="G69" s="7" t="n">
+        <v>45929</v>
       </c>
     </row>
     <row r="70">
@@ -2426,8 +2428,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G70" s="4" t="n">
-        <v>45701</v>
+      <c r="G70" s="7" t="n">
+        <v>45930</v>
       </c>
     </row>
     <row r="71">
@@ -2451,8 +2453,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G71" s="4" t="n">
-        <v>45701</v>
+      <c r="G71" s="7" t="n">
+        <v>45930</v>
       </c>
     </row>
     <row r="72">
@@ -2476,8 +2478,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G72" s="4" t="n">
-        <v>45702</v>
+      <c r="G72" s="7" t="n">
+        <v>45930</v>
       </c>
     </row>
     <row r="73">
@@ -2511,8 +2513,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G73" s="4" t="n">
-        <v>45702</v>
+      <c r="G73" s="7" t="n">
+        <v>45931</v>
       </c>
     </row>
     <row r="74">
@@ -2536,8 +2538,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G74" s="4" t="n">
-        <v>45702</v>
+      <c r="G74" s="7" t="n">
+        <v>45931</v>
       </c>
     </row>
     <row r="75">
@@ -2561,8 +2563,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G75" s="4" t="n">
-        <v>45703</v>
+      <c r="G75" s="7" t="n">
+        <v>45931</v>
       </c>
     </row>
     <row r="76">
@@ -2596,8 +2598,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G76" s="4" t="n">
-        <v>45703</v>
+      <c r="G76" s="7" t="n">
+        <v>45932</v>
       </c>
     </row>
     <row r="77">
@@ -2621,8 +2623,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G77" s="4" t="n">
-        <v>45703</v>
+      <c r="G77" s="7" t="n">
+        <v>45932</v>
       </c>
     </row>
     <row r="78">
@@ -2646,8 +2648,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G78" s="4" t="n">
-        <v>45704</v>
+      <c r="G78" s="7" t="n">
+        <v>45932</v>
       </c>
     </row>
     <row r="79">
@@ -2681,8 +2683,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G79" s="4" t="n">
-        <v>45704</v>
+      <c r="G79" s="7" t="n">
+        <v>45933</v>
       </c>
     </row>
     <row r="80">
@@ -2706,8 +2708,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G80" s="4" t="n">
-        <v>45704</v>
+      <c r="G80" s="7" t="n">
+        <v>45933</v>
       </c>
     </row>
     <row r="81">
@@ -2731,8 +2733,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G81" s="4" t="n">
-        <v>45705</v>
+      <c r="G81" s="7" t="n">
+        <v>45933</v>
       </c>
     </row>
     <row r="82">
@@ -2766,8 +2768,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G82" s="4" t="n">
-        <v>45705</v>
+      <c r="G82" s="7" t="n">
+        <v>45934</v>
       </c>
     </row>
     <row r="83">
@@ -2791,8 +2793,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G83" s="4" t="n">
-        <v>45705</v>
+      <c r="G83" s="7" t="n">
+        <v>45934</v>
       </c>
     </row>
     <row r="84">
@@ -2816,8 +2818,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G84" s="4" t="n">
-        <v>45706</v>
+      <c r="G84" s="7" t="n">
+        <v>45934</v>
       </c>
     </row>
     <row r="85">
@@ -2851,8 +2853,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G85" s="4" t="n">
-        <v>45706</v>
+      <c r="G85" s="7" t="n">
+        <v>45935</v>
       </c>
     </row>
     <row r="86">
@@ -2876,8 +2878,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G86" s="4" t="n">
-        <v>45706</v>
+      <c r="G86" s="7" t="n">
+        <v>45935</v>
       </c>
     </row>
     <row r="87">
@@ -2901,8 +2903,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G87" s="4" t="n">
-        <v>45707</v>
+      <c r="G87" s="7" t="n">
+        <v>45935</v>
       </c>
     </row>
     <row r="88">
@@ -2936,8 +2938,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G88" s="4" t="n">
-        <v>45707</v>
+      <c r="G88" s="7" t="n">
+        <v>45936</v>
       </c>
     </row>
     <row r="89">
@@ -2961,8 +2963,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G89" s="4" t="n">
-        <v>45707</v>
+      <c r="G89" s="7" t="n">
+        <v>45936</v>
       </c>
     </row>
     <row r="90">
@@ -2986,8 +2988,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G90" s="4" t="n">
-        <v>45708</v>
+      <c r="G90" s="7" t="n">
+        <v>45936</v>
       </c>
     </row>
     <row r="91">
@@ -3021,8 +3023,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G91" s="4" t="n">
-        <v>45708</v>
+      <c r="G91" s="7" t="n">
+        <v>45937</v>
       </c>
     </row>
     <row r="92">
@@ -3046,8 +3048,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G92" s="4" t="n">
-        <v>45708</v>
+      <c r="G92" s="7" t="n">
+        <v>45937</v>
       </c>
     </row>
     <row r="93">
@@ -3071,8 +3073,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="G93" s="4" t="n">
-        <v>45709</v>
+      <c r="G93" s="7" t="n">
+        <v>45937</v>
       </c>
     </row>
   </sheetData>
@@ -3090,7 +3092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3130,8 +3132,8 @@
       <c r="J2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
-        <v>45679</v>
+      <c r="A3" s="7" t="n">
+        <v>45908</v>
       </c>
       <c r="B3" t="n">
         <v>90</v>
@@ -3141,332 +3143,409 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>45680</v>
+      <c r="A4" s="7" t="n">
+        <v>45909</v>
       </c>
       <c r="B4" t="n">
-        <v>87</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>87</v>
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>45681</v>
+      <c r="A5" s="7" t="n">
+        <v>45910</v>
       </c>
       <c r="B5" t="n">
-        <v>84</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>84</v>
+        <v>85.09999999999999</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>45682</v>
+      <c r="A6" s="7" t="n">
+        <v>45911</v>
       </c>
       <c r="B6" t="n">
-        <v>81</v>
+        <v>82.7</v>
       </c>
       <c r="C6" t="n">
-        <v>81</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>45683</v>
+      <c r="A7" s="7" t="n">
+        <v>45912</v>
       </c>
       <c r="B7" t="n">
-        <v>78</v>
+        <v>80.3</v>
       </c>
       <c r="C7" t="n">
-        <v>78</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>45684</v>
+      <c r="A8" s="7" t="n">
+        <v>45913</v>
       </c>
       <c r="B8" t="n">
-        <v>75</v>
+        <v>77.8</v>
       </c>
       <c r="C8" t="n">
-        <v>75</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>45685</v>
+      <c r="A9" s="7" t="n">
+        <v>45914</v>
       </c>
       <c r="B9" t="n">
-        <v>72</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>72</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>45686</v>
+      <c r="A10" s="7" t="n">
+        <v>45915</v>
       </c>
       <c r="B10" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C10" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
-        <v>45687</v>
+      <c r="A11" s="7" t="n">
+        <v>45916</v>
       </c>
       <c r="B11" t="n">
-        <v>66</v>
+        <v>70.5</v>
       </c>
       <c r="C11" t="n">
-        <v>66</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
-        <v>45688</v>
+      <c r="A12" s="7" t="n">
+        <v>45917</v>
       </c>
       <c r="B12" t="n">
-        <v>63</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>63</v>
+        <v>68.09999999999999</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
-        <v>45689</v>
+      <c r="A13" s="7" t="n">
+        <v>45918</v>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>65.7</v>
       </c>
       <c r="C13" t="n">
-        <v>60</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
-        <v>45690</v>
+      <c r="A14" s="7" t="n">
+        <v>45919</v>
       </c>
       <c r="B14" t="n">
-        <v>57</v>
+        <v>63.2</v>
       </c>
       <c r="C14" t="n">
-        <v>57</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
-        <v>45691</v>
+      <c r="A15" s="7" t="n">
+        <v>45920</v>
       </c>
       <c r="B15" t="n">
-        <v>54</v>
+        <v>60.8</v>
       </c>
       <c r="C15" t="n">
-        <v>54</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
-        <v>45692</v>
+      <c r="A16" s="7" t="n">
+        <v>45921</v>
       </c>
       <c r="B16" t="n">
-        <v>51</v>
+        <v>58.4</v>
       </c>
       <c r="C16" t="n">
-        <v>51</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
-        <v>45693</v>
+      <c r="A17" s="7" t="n">
+        <v>45922</v>
       </c>
       <c r="B17" t="n">
-        <v>48</v>
+        <v>55.9</v>
       </c>
       <c r="C17" t="n">
-        <v>48</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
-        <v>45694</v>
+      <c r="A18" s="7" t="n">
+        <v>45923</v>
       </c>
       <c r="B18" t="n">
-        <v>45</v>
+        <v>53.5</v>
       </c>
       <c r="C18" t="n">
-        <v>45</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
-        <v>45695</v>
+      <c r="A19" s="7" t="n">
+        <v>45924</v>
       </c>
       <c r="B19" t="n">
-        <v>42</v>
+        <v>51.1</v>
       </c>
       <c r="C19" t="n">
-        <v>42</v>
+        <v>51.1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
-        <v>45696</v>
+      <c r="A20" s="7" t="n">
+        <v>45925</v>
       </c>
       <c r="B20" t="n">
-        <v>39</v>
+        <v>48.6</v>
       </c>
       <c r="C20" t="n">
-        <v>39</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
-        <v>45697</v>
+      <c r="A21" s="7" t="n">
+        <v>45926</v>
       </c>
       <c r="B21" t="n">
-        <v>36</v>
+        <v>46.2</v>
       </c>
       <c r="C21" t="n">
-        <v>36</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
-        <v>45698</v>
+      <c r="A22" s="7" t="n">
+        <v>45927</v>
       </c>
       <c r="B22" t="n">
-        <v>33</v>
+        <v>43.8</v>
       </c>
       <c r="C22" t="n">
-        <v>33</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n">
-        <v>45699</v>
+      <c r="A23" s="7" t="n">
+        <v>45928</v>
       </c>
       <c r="B23" t="n">
-        <v>30</v>
+        <v>41.4</v>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
-        <v>45700</v>
+      <c r="A24" s="7" t="n">
+        <v>45929</v>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>38.9</v>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
-        <v>45701</v>
+      <c r="A25" s="7" t="n">
+        <v>45930</v>
       </c>
       <c r="B25" t="n">
-        <v>24</v>
+        <v>36.5</v>
       </c>
       <c r="C25" t="n">
-        <v>24</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
-        <v>45702</v>
+      <c r="A26" s="7" t="n">
+        <v>45931</v>
       </c>
       <c r="B26" t="n">
-        <v>21</v>
+        <v>34.1</v>
       </c>
       <c r="C26" t="n">
-        <v>21</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n">
-        <v>45703</v>
+      <c r="A27" s="7" t="n">
+        <v>45932</v>
       </c>
       <c r="B27" t="n">
-        <v>18</v>
+        <v>31.6</v>
       </c>
       <c r="C27" t="n">
-        <v>18</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
-        <v>45704</v>
+      <c r="A28" s="7" t="n">
+        <v>45933</v>
       </c>
       <c r="B28" t="n">
-        <v>15</v>
+        <v>29.2</v>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n">
-        <v>45705</v>
+      <c r="A29" s="7" t="n">
+        <v>45934</v>
       </c>
       <c r="B29" t="n">
-        <v>12</v>
+        <v>26.8</v>
       </c>
       <c r="C29" t="n">
-        <v>12</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
-        <v>45706</v>
+      <c r="A30" s="7" t="n">
+        <v>45935</v>
       </c>
       <c r="B30" t="n">
-        <v>9</v>
+        <v>24.3</v>
       </c>
       <c r="C30" t="n">
-        <v>9</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="n">
-        <v>45707</v>
+      <c r="A31" s="7" t="n">
+        <v>45936</v>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>21.9</v>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
-        <v>45708</v>
+      <c r="A32" s="7" t="n">
+        <v>45937</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>19.5</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n">
-        <v>45709</v>
+      <c r="A33" s="7" t="n">
+        <v>45938</v>
       </c>
       <c r="B33" t="n">
+        <v>17</v>
+      </c>
+      <c r="C33" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B34" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="n">
+        <v>45941</v>
+      </c>
+      <c r="B36" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C36" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B37" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B40" t="n">
         <v>0</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C40" t="n">
         <v>0</v>
       </c>
     </row>
